--- a/Fase I - Planeacion y Riesgos/4900 Representaciones de la gerencia/Estados financieros y mayor/EFs interinos/Balance de comprobacion en-jun21.xlsx
+++ b/Fase I - Planeacion y Riesgos/4900 Representaciones de la gerencia/Estados financieros y mayor/EFs interinos/Balance de comprobacion en-jun21.xlsx
@@ -5,20 +5,29 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\Grafimpac\Fase I - Planeacion y Riesgos\4900 Representaciones de la gerencia\Estados financieros y mayor\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carlos Almeida\Documents\GitHub\Grafimpac\Fase I - Planeacion y Riesgos\4900 Representaciones de la gerencia\Estados financieros y mayor\EFs interinos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E543F831-C580-4D2C-8F03-2E0003E59EE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E02C8B8-89E9-4295-8BAC-0C0B3B42C4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -1020,12 +1029,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1040,11 +1055,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1374,10 +1392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H346"/>
+  <dimension ref="A1:I348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="I348" sqref="I348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,6 +1406,7 @@
     <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -4905,29 +4924,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
         <v>410101010001</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="C140" s="2">
-        <v>0</v>
-      </c>
-      <c r="D140" s="2">
-        <v>0</v>
-      </c>
-      <c r="E140" s="2">
+      <c r="C140" s="5">
+        <v>0</v>
+      </c>
+      <c r="D140" s="5">
+        <v>0</v>
+      </c>
+      <c r="E140" s="5">
         <v>1393.35</v>
       </c>
-      <c r="F140" s="2">
+      <c r="F140" s="5">
         <v>273387.77</v>
       </c>
-      <c r="G140" s="2">
-        <v>0</v>
-      </c>
-      <c r="H140" s="2">
+      <c r="G140" s="5">
+        <v>0</v>
+      </c>
+      <c r="H140" s="5">
         <v>271994.42</v>
       </c>
     </row>
@@ -10027,7 +10046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>520301010001</v>
       </c>
@@ -10053,7 +10072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>520301020001</v>
       </c>
@@ -10079,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>540101030008</v>
       </c>
@@ -10105,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>540101030010</v>
       </c>
@@ -10131,7 +10150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>540101030011</v>
       </c>
@@ -10157,7 +10176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>540101040009</v>
       </c>
@@ -10183,7 +10202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>540101040013</v>
       </c>
@@ -10209,7 +10228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>9101010001</v>
       </c>
@@ -10235,7 +10254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>9201010001</v>
       </c>
@@ -10261,7 +10280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B346" s="1" t="s">
         <v>322</v>
       </c>
@@ -10282,6 +10301,26 @@
       </c>
       <c r="H346" s="3">
         <v>31036859.75</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G347" s="2">
+        <f>SUM(G141:G345)</f>
+        <v>10363499.619999997</v>
+      </c>
+      <c r="H347" s="2">
+        <f>SUM(H141:H345)</f>
+        <v>10785539.789999999</v>
+      </c>
+      <c r="I347" s="6">
+        <f>+H347-G347</f>
+        <v>422040.17000000179</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I348" s="6">
+        <f>+I347+504216</f>
+        <v>926256.17000000179</v>
       </c>
     </row>
   </sheetData>
